--- a/bh3/552853271289163139_2021-07-29_19-53-03.xlsx
+++ b/bh3/552853271289163139_2021-07-29_19-53-03.xlsx
@@ -1278,7 +1278,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -14789,7 +14789,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -15324,7 +15324,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -17455,7 +17455,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19529,7 +19529,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -21351,7 +21351,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21947,7 +21947,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22776,7 +22776,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22855,7 +22855,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -23139,7 +23139,7 @@
         </is>
       </c>
       <c r="I307" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -23730,7 +23730,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23860,7 +23860,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23927,7 +23927,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24226,7 +24226,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24362,7 +24362,7 @@
         </is>
       </c>
       <c r="I324" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -26667,7 +26667,7 @@
         </is>
       </c>
       <c r="I355" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -28480,7 +28480,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28852,7 +28852,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -29460,7 +29460,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29539,7 +29539,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29603,7 +29603,7 @@
         </is>
       </c>
       <c r="I395" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J395" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29992,7 +29992,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -30142,7 +30142,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -30221,7 +30221,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -30367,7 +30367,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30525,7 +30525,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30600,7 +30600,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30675,7 +30675,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30754,7 +30754,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -31034,7 +31034,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -32360,7 +32360,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32968,7 +32968,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -33203,7 +33203,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -33532,7 +33532,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -33666,7 +33666,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33745,7 +33745,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -34115,7 +34115,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -34194,7 +34194,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -34940,7 +34940,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -35240,7 +35240,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -35319,7 +35319,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -35394,7 +35394,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -36078,7 +36078,7 @@
         </is>
       </c>
       <c r="I481" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J481" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -36295,7 +36295,7 @@
         </is>
       </c>
       <c r="I484" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
@@ -36683,7 +36683,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -37137,7 +37137,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -37204,7 +37204,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -37496,7 +37496,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -37571,7 +37571,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -37638,7 +37638,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -37717,7 +37717,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37792,7 +37792,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -37930,7 +37930,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -38163,7 +38163,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -38242,7 +38242,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -38814,7 +38814,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -39102,7 +39102,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -39181,7 +39181,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -39253,7 +39253,7 @@
         </is>
       </c>
       <c r="I524" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J524" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -40603,7 +40603,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40666,7 +40666,7 @@
         </is>
       </c>
       <c r="I543" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J543" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -40962,7 +40962,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -41030,7 +41030,7 @@
         </is>
       </c>
       <c r="I548" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J548" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -41348,7 +41348,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -41506,7 +41506,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -41656,7 +41656,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -41727,7 +41727,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -41869,7 +41869,7 @@
         </is>
       </c>
       <c r="I559" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J559" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         </is>
       </c>
       <c r="I564" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J564" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="I567" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J567" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         </is>
       </c>
       <c r="I574" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J574" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -43128,7 +43128,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -43208,7 +43208,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -43517,7 +43517,7 @@
         </is>
       </c>
       <c r="I581" t="n">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="J581" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -43663,7 +43663,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -43734,7 +43734,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -43814,7 +43814,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -43881,7 +43881,7 @@
         </is>
       </c>
       <c r="I586" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J586" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -44039,7 +44039,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -44114,7 +44114,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -44265,7 +44265,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -44340,7 +44340,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -44407,7 +44407,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -44553,7 +44553,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">

--- a/bh3/552853271289163139_2021-07-29_19-53-03.xlsx
+++ b/bh3/552853271289163139_2021-07-29_19-53-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5093539972</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-07 13:48:56</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44415.57564814815</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -619,10 +633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-04 11:17:08</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44412.47023148148</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -699,10 +711,8 @@
           <t>5034397371</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:33:52</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44408.48185185185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>5023779817</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:31:55</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44408.48049768519</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,10 +851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-31 09:12:59</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44408.3840162037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>5031827236</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-30 23:39:15</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44407.98559027778</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-30 23:04:12</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44407.96125</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1060,10 +1062,8 @@
           <t>5028925669</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:57:31</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44407.74827546296</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>5028930041</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:57:19</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44407.74813657408</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1202,10 +1200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:52:16</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44407.74462962963</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1273,10 +1269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:54:09</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44407.45427083333</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1348,10 +1342,8 @@
           <t>5025722278</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:27:16</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44407.43560185185</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1427,10 +1419,8 @@
           <t>5021781882</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-30 08:53:48</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44407.37069444444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1503,10 +1493,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:49:03</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44407.32572916667</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1570,10 +1558,8 @@
           <t>5024886243</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:21:02</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44407.30627314815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1649,10 +1635,8 @@
           <t>5024794738</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:38:27</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44407.27670138889</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1716,10 +1700,8 @@
           <t>5024753412</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:03:58</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44407.25275462963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1783,10 +1765,8 @@
           <t>5024755419</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-30 06:03:15</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44407.25225694444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1850,10 +1830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-30 05:10:51</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44407.21586805556</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1923,10 +1901,8 @@
           <t>5021656894</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:51:32</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44407.07745370371</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2007,10 +1983,8 @@
           <t>5024331689</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:46:55</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44407.07424768519</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2090,10 +2064,8 @@
           <t>5024228046</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:21:44</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44407.05675925926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2165,10 +2137,8 @@
           <t>5024191592</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:13:16</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44407.05087962963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2236,10 +2206,8 @@
           <t>5024157661</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:05:58</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44407.04581018518</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2311,10 +2279,8 @@
           <t>5024075088</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:49:32</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44407.03439814815</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2382,10 +2348,8 @@
           <t>5023724326</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:17:42</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44407.01229166667</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2461,10 +2425,8 @@
           <t>5023724326</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:16:13</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44407.01126157407</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2540,10 +2502,8 @@
           <t>5023724326</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:15:01</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44407.01042824074</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2619,10 +2579,8 @@
           <t>5023724326</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:10:59</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44407.00762731482</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2698,10 +2656,8 @@
           <t>5023724326</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:09:26</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44407.00655092593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2778,10 +2734,8 @@
           <t>5023779817</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:05:49</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44407.00403935185</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2859,10 +2813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:02:48</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44407.00194444445</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2926,10 +2878,8 @@
           <t>5023724326</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:01:59</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44407.00137731482</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3005,10 +2955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:00:09</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44407.00010416667</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3084,10 +3032,8 @@
           <t>5023724326</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:58:39</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44406.9990625</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3163,10 +3109,8 @@
           <t>5023710170</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:55:38</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44406.99696759259</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3230,10 +3174,8 @@
           <t>5023639860</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:47:28</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44406.9912962963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3297,10 +3239,8 @@
           <t>5023511465</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:30:45</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44406.9796875</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3368,10 +3308,8 @@
           <t>5023501356</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:30:30</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44406.97951388889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3431,10 +3369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:24:45</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44406.97552083333</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3498,10 +3434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:18:28</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44406.97115740741</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3565,10 +3499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:16:21</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44406.9696875</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3628,10 +3560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:16:03</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44406.96947916667</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3698,10 +3628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:15:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44406.96940972222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3764,10 +3692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:15:51</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44406.96934027778</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3831,10 +3757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:15:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44406.96930555555</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3894,10 +3818,8 @@
           <t>5023340274</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:14:11</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44406.96818287037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3973,10 +3895,8 @@
           <t>5023340274</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:10:38</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44406.96571759259</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4044,10 +3964,8 @@
           <t>5023275297</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:05:47</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44406.96234953704</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4123,10 +4041,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:04:17</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44406.96130787037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4202,10 +4118,8 @@
           <t>5023275297</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:03:24</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44406.96069444445</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4273,10 +4187,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:03:04</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44406.96046296296</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4352,10 +4264,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:02:31</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44406.96008101852</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4431,10 +4341,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:00:59</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44406.95901620371</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4510,10 +4418,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:00:53</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44406.95894675926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4589,10 +4495,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:00:03</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44406.95836805556</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4668,10 +4572,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:59:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44406.95778935185</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4747,10 +4649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:54:35</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44406.95457175926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4818,10 +4718,8 @@
           <t>5023132762</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:48:01</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44406.95001157407</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4889,10 +4787,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:46:24</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44406.94888888889</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4968,10 +4864,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:40:35</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44406.94484953704</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5035,10 +4929,8 @@
           <t>5023050076</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:37:57</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44406.94302083334</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5110,10 +5002,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:36:55</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44406.94230324074</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5193,10 +5083,8 @@
           <t>5023035552</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:36:33</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44406.94204861111</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5272,10 +5160,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:36:19</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44406.94188657407</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5351,10 +5237,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:35:26</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44406.94127314815</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5418,10 +5302,8 @@
           <t>5023021281</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:35:17</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44406.94116898148</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5497,10 +5379,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:34:40</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44406.94074074074</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5576,10 +5456,8 @@
           <t>5022985091</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:30:50</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44406.9380787037</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5655,10 +5533,8 @@
           <t>5022070332</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:30:30</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44406.93784722222</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5735,10 +5611,8 @@
           <t>5021708448</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:27:43</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44406.93591435185</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5802,10 +5676,8 @@
           <t>5022944698</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:27:11</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44406.93554398148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5869,10 +5741,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:24:58</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44406.93400462963</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5944,10 +5814,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:24:40</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44406.9337962963</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6019,10 +5887,8 @@
           <t>5021754123</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:23:48</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44406.93319444444</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6098,10 +5964,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:23:11</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44406.9327662037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6165,10 +6029,8 @@
           <t>5022889817</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:21:55</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44406.93188657407</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -6244,10 +6106,8 @@
           <t>5022100990</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:18:05</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44406.92922453704</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6319,10 +6179,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:17:53</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44406.92908564815</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6398,10 +6256,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:15:30</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44406.92743055556</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6465,10 +6321,8 @@
           <t>5022840637</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:15:11</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44406.92721064815</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6536,10 +6390,8 @@
           <t>5022825446</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:13:26</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44406.92599537037</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6616,10 +6468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:07:57</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44406.9221875</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6696,10 +6546,8 @@
           <t>5022750814</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:05:34</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44406.92053240741</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6763,10 +6611,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:05:16</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44406.92032407408</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6830,10 +6676,8 @@
           <t>5022070332</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:02:51</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44406.91864583334</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6901,10 +6745,8 @@
           <t>5022100990</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:01:23</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44406.91762731481</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6972,10 +6814,8 @@
           <t>5022708291</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:01:22</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44406.91761574074</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7043,10 +6883,8 @@
           <t>5021877431</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:59:14</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44406.91613425926</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7118,10 +6956,8 @@
           <t>5022681592</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:58:05</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44406.91533564815</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7193,10 +7029,8 @@
           <t>5022071769</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:57:59</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44406.9152662037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7268,10 +7102,8 @@
           <t>5022071769</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:57:23</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44406.91484953704</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7343,10 +7175,8 @@
           <t>5022658287</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:56:18</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44406.91409722222</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7422,10 +7252,8 @@
           <t>5022656678</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:55:45</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44406.91371527778</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7497,10 +7325,8 @@
           <t>5022661009</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:55:33</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44406.91357638889</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7576,10 +7402,8 @@
           <t>5021842258</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:55:03</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44406.91322916667</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7643,10 +7467,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:54:14</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44406.91266203704</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7714,10 +7536,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:53:44</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44406.91231481481</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7781,10 +7601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:52:55</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44406.91174768518</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7844,10 +7662,8 @@
           <t>5022625182</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:51:49</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44406.9109837963</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7915,10 +7731,8 @@
           <t>5022470975</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:46:25</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44406.90723379629</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7982,10 +7796,8 @@
           <t>5022100990</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:44:29</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44406.90589120371</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8057,10 +7869,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:44:17</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44406.90575231481</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8136,10 +7946,8 @@
           <t>5022553142</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:44:11</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44406.90568287037</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8215,10 +8023,8 @@
           <t>5022477548</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:42:28</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44406.90449074074</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8294,10 +8100,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:40:26</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44406.9030787037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8369,10 +8173,8 @@
           <t>5022499755</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:38:21</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44406.90163194444</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8448,10 +8250,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:37:12</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44406.90083333333</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8527,10 +8327,8 @@
           <t>5022490755</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:36:33</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44406.90038194445</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8606,10 +8404,8 @@
           <t>5021754123</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:36:17</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44406.90019675926</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8685,10 +8481,8 @@
           <t>5022481531</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:35:43</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44406.89980324074</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8752,10 +8546,8 @@
           <t>5022477548</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:35:22</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44406.89956018519</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8831,10 +8623,8 @@
           <t>5022470975</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:34:42</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44406.89909722222</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8910,10 +8700,8 @@
           <t>5022442781</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:31:30</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44406.896875</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8989,10 +8777,8 @@
           <t>5022447245</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:31:29</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44406.89686342593</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9068,10 +8854,8 @@
           <t>5022435915</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:30:29</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44406.89616898148</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9139,10 +8923,8 @@
           <t>5022429306</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:29:57</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44406.89579861111</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9214,10 +8996,8 @@
           <t>5022418218</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:28:11</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44406.89457175926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9285,10 +9065,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:26:30</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44406.89340277778</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9360,10 +9138,8 @@
           <t>5022365155</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:21:38</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44406.89002314815</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9439,10 +9215,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:17:12</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44406.88694444444</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9510,10 +9284,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:16:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44406.88628472222</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9577,10 +9349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:14:13</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44406.88487268519</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9644,10 +9414,8 @@
           <t>5021877431</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:09:49</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44406.88181712963</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9719,10 +9487,8 @@
           <t>5021754123</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:08:04</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44406.88060185185</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9794,10 +9560,8 @@
           <t>5021688547</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:07:49</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44406.88042824074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9869,10 +9633,8 @@
           <t>5021688111</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:07:44</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44406.88037037037</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9944,10 +9706,8 @@
           <t>5021672427</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:07:38</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44406.88030092593</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10020,10 +9780,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:07:26</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44406.88016203704</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -10099,10 +9857,8 @@
           <t>5022245163</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:07:18</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44406.88006944444</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10170,10 +9926,8 @@
           <t>5022224041</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:05:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44406.8784837963</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -10246,10 +10000,8 @@
           <t>5022212583</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:04:20</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44406.87800925926</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10325,10 +10077,8 @@
           <t>5022023375</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:04:07</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44406.8778587963</v>
       </c>
       <c r="I134" t="n">
         <v>4</v>
@@ -10404,10 +10154,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:00:35</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44406.87540509259</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10483,10 +10231,8 @@
           <t>5021743037</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:00:13</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44406.87515046296</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10563,10 +10309,8 @@
           <t>5021743037</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:59:50</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44406.87488425926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10642,10 +10386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:59:40</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44406.87476851852</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -10709,10 +10451,8 @@
           <t>5021884443</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:58:57</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44406.87427083333</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10776,10 +10516,8 @@
           <t>5022163384</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:57:53</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44406.87353009259</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10843,10 +10581,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:56:51</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44406.8728125</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10914,10 +10650,8 @@
           <t>5021835230</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:55:33</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44406.87190972222</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10985,10 +10719,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:55:32</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44406.87189814815</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11052,10 +10784,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:55:13</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44406.87167824074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11119,10 +10849,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:55:11</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44406.87165509259</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11194,10 +10922,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:54:54</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44406.87145833333</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11269,10 +10995,8 @@
           <t>5021743037</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:54:42</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44406.87131944444</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11336,10 +11060,8 @@
           <t>5022128101</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:53:46</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44406.8706712963</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11408,10 +11130,8 @@
           <t>5022113811</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:52:10</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44406.86956018519</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11475,10 +11195,8 @@
           <t>5021706385</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:51:55</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44406.86938657407</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11554,10 +11272,8 @@
           <t>5022109516</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:51:41</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44406.86922453704</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11621,10 +11337,8 @@
           <t>5021877431</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:51:40</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44406.86921296296</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11696,10 +11410,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:50:59</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44406.86873842592</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11775,10 +11487,8 @@
           <t>5022100990</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:50:10</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44406.86817129629</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11846,10 +11556,8 @@
           <t>5022100717</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:50:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44406.86810185185</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11917,10 +11625,8 @@
           <t>5022089589</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:49:45</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44406.86788194445</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11988,10 +11694,8 @@
           <t>5021877431</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:49:39</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44406.8678125</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12063,10 +11767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:49:31</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44406.86771990741</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12130,10 +11832,8 @@
           <t>5022087992</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:49:07</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44406.86744212963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12197,10 +11897,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:48:44</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44406.86717592592</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12276,10 +11974,8 @@
           <t>5022079340</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:47:53</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44406.86658564815</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12356,10 +12052,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:47:04</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44406.86601851852</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12423,10 +12117,8 @@
           <t>5022077028</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:47:04</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44406.86601851852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12502,10 +12194,8 @@
           <t>5022071769</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:46:40</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44406.86574074074</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12578,10 +12268,8 @@
           <t>5022065290</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:46:39</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44406.86572916667</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12645,10 +12333,8 @@
           <t>5022068914</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:46:34</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44406.8656712963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12724,10 +12410,8 @@
           <t>5022070332</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:46:06</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44406.86534722222</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12804,10 +12488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:45:34</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44406.86497685185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12883,10 +12565,8 @@
           <t>5022066088</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:45:28</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44406.86490740741</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12958,10 +12638,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:45:26</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44406.86488425926</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13029,10 +12707,8 @@
           <t>5022065290</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:45:09</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44406.8646875</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13092,10 +12768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:44:53</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44406.86450231481</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13167,10 +12841,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:44:08</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44406.86398148148</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13246,10 +12918,8 @@
           <t>5022047575</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:42</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44406.86368055556</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13309,10 +12979,8 @@
           <t>5021695159</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44406.86357638889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13381,10 +13049,8 @@
           <t>5021743037</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:43:30</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44406.86354166667</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13460,10 +13126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:42:43</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44406.86299768519</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13531,10 +13195,8 @@
           <t>5022037400</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:42:07</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44406.86258101852</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13598,10 +13260,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:41:49</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44406.86237268519</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13665,10 +13325,8 @@
           <t>5022036539</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:41:47</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44406.86234953703</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13745,10 +13403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:41:19</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44406.86202546296</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13812,10 +13468,8 @@
           <t>5022023375</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:40:35</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44406.8615162037</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13888,10 +13542,8 @@
           <t>5021881692</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:40:19</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44406.86133101852</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13967,10 +13619,8 @@
           <t>5021743037</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:40:11</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44406.86123842592</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14046,10 +13696,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:40:06</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44406.86118055556</v>
       </c>
       <c r="I185" t="n">
         <v>4</v>
@@ -14125,10 +13773,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:39:38</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44406.86085648148</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14204,10 +13850,8 @@
           <t>5022015753</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:39:30</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44406.86076388889</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14275,10 +13919,8 @@
           <t>5022014224</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:39:30</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44406.86076388889</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14346,10 +13988,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:39:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44406.86041666667</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -14417,10 +14057,8 @@
           <t>5022004160</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:38:56</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44406.86037037037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14488,10 +14126,8 @@
           <t>5022003837</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:38:49</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44406.86028935185</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14567,10 +14203,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:38:41</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44406.86019675926</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14638,10 +14272,8 @@
           <t>5022002004</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:38:06</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44406.85979166667</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14717,10 +14349,8 @@
           <t>5022006244</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:55</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44406.85966435185</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14788,10 +14418,8 @@
           <t>5021754123</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:45</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44406.85954861111</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14867,10 +14495,8 @@
           <t>5022000574</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:34</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44406.8594212963</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14938,10 +14564,8 @@
           <t>5021993677</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:37:00</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44406.85902777778</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15005,10 +14629,8 @@
           <t>5021881692</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:36:40</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44406.8587962963</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15080,10 +14702,8 @@
           <t>5021996857</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:36:29</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44406.85866898148</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15159,10 +14779,8 @@
           <t>5021990254</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:35:48</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44406.85819444444</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15238,10 +14856,8 @@
           <t>5021971764</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:34:11</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44406.85707175926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15317,10 +14933,8 @@
           <t>5021881692</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:33:44</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44406.85675925926</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15396,10 +15010,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:33:36</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44406.85666666667</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15473,10 +15085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:33:07</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44406.85633101852</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15544,10 +15154,8 @@
           <t>5021967458</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:33:02</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44406.85627314815</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15607,10 +15215,8 @@
           <t>5021881692</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:33:00</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44406.85625</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15686,10 +15292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:32:27</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44406.85586805556</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15757,10 +15361,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:32:24</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44406.85583333333</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15828,10 +15430,8 @@
           <t>5021666931</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:32:21</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44406.85579861111</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15899,10 +15499,8 @@
           <t>5021965403</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:32:20</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44406.85578703704</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15970,10 +15568,8 @@
           <t>5021965010</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:32:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44406.85569444444</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16041,10 +15637,8 @@
           <t>5021881692</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:31:53</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44406.85547453703</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16112,10 +15706,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:31:43</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44406.8553587963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16191,10 +15783,8 @@
           <t>5021774138</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:31:30</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44406.85520833333</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16266,10 +15856,8 @@
           <t>5021877431</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:31:06</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44406.85493055556</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16341,10 +15929,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:28</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44406.85449074074</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16420,10 +16006,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:28</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44406.85449074074</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16499,10 +16083,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:24</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44406.85444444444</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16578,10 +16160,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:30:03</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44406.85420138889</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16649,10 +16229,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:29:58</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44406.85414351852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16720,10 +16298,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:29:55</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44406.85410879629</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16799,10 +16375,8 @@
           <t>5021774138</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:28:53</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44406.8533912037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16874,10 +16448,8 @@
           <t>5021932721</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:28:47</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44406.85332175926</v>
       </c>
       <c r="I223" t="n">
         <v>9</v>
@@ -16953,10 +16525,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:28:09</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44406.85288194445</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17024,10 +16594,8 @@
           <t>5021914478</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:31</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44406.85244212963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17099,10 +16667,8 @@
           <t>5021919185</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:27</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44406.85239583333</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17178,10 +16744,8 @@
           <t>5021695159</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:18</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44406.85229166667</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17245,10 +16809,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:13</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44406.85223379629</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17316,10 +16878,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:27:10</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44406.85219907408</v>
       </c>
       <c r="I229" t="n">
         <v>4</v>
@@ -17387,10 +16947,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:55</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44406.85202546296</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17454,10 +17012,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:54</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44406.85201388889</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17525,10 +17081,8 @@
           <t>5021774138</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:45</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44406.85190972222</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17604,10 +17158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:29</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44406.85172453704</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17679,10 +17231,8 @@
           <t>5021911723</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:26</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44406.85168981482</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17754,10 +17304,8 @@
           <t>5021763844</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:23</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44406.85165509259</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17833,10 +17381,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:18</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44406.85159722222</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17900,10 +17446,8 @@
           <t>5021915925</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:14</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44406.85155092592</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17975,10 +17519,8 @@
           <t>5021910640</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:26:00</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44406.85138888889</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -18054,10 +17596,8 @@
           <t>5021763844</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:57</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44406.85135416667</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18133,10 +17673,8 @@
           <t>5021816593</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:50</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44406.85127314815</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18212,10 +17750,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:37</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44406.85112268518</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18283,10 +17819,8 @@
           <t>5021714456</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:35</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44406.85109953704</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18350,10 +17884,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:27</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44406.85100694445</v>
       </c>
       <c r="I243" t="n">
         <v>5</v>
@@ -18421,10 +17953,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:25:01</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44406.85070601852</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18500,10 +18030,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:24:54</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44406.850625</v>
       </c>
       <c r="I245" t="n">
         <v>8</v>
@@ -18571,10 +18099,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:24:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44406.85016203704</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18642,10 +18168,8 @@
           <t>5021892049</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:24:08</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44406.85009259259</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18713,10 +18237,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:46</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44406.84983796296</v>
       </c>
       <c r="I248" t="n">
         <v>8</v>
@@ -18784,10 +18306,8 @@
           <t>5021763844</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:39</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44406.84975694444</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18863,10 +18383,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:32</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44406.84967592593</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18934,10 +18452,8 @@
           <t>5021884443</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:32</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44406.84967592593</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -19006,10 +18522,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:19</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44406.84952546296</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19077,10 +18591,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:13</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44406.84945601852</v>
       </c>
       <c r="I253" t="n">
         <v>8</v>
@@ -19163,10 +18675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:23:02</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44406.84932870371</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19234,10 +18744,8 @@
           <t>5021877431</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:32</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44406.84898148148</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19309,10 +18817,8 @@
           <t>5021881692</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:26</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44406.84891203704</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -19383,10 +18889,8 @@
           <t>5021885854</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:22:23</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44406.84887731481</v>
       </c>
       <c r="I257" t="n">
         <v>2</v>
@@ -19455,10 +18959,8 @@
           <t>5021843674</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:46</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44406.84844907407</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19540,10 +19042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:42</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44406.84840277778</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19611,10 +19111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:41</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44406.8483912037</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19682,10 +19180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:40</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44406.84837962963</v>
       </c>
       <c r="I261" t="n">
         <v>8</v>
@@ -19749,10 +19245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:33</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44406.84829861111</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19820,10 +19314,8 @@
           <t>5021835230</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:21:24</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44406.84819444444</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19895,10 +19387,8 @@
           <t>5021834064</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44406.8478587963</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19974,10 +19464,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:44</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44406.84773148148</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -20045,10 +19533,8 @@
           <t>5021843674</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:26</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44406.84752314815</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20124,10 +19610,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:24</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44406.8475</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -20203,10 +19687,8 @@
           <t>5021719372</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:15</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44406.84739583333</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20282,10 +19764,8 @@
           <t>5021706385</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:13</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44406.84737268519</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20361,10 +19841,8 @@
           <t>5021781882</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:20:00</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44406.84722222222</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20441,10 +19919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:19:37</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44406.84695601852</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -20520,10 +19996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:19:30</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44406.846875</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20595,10 +20069,8 @@
           <t>5021842258</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:19:27</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44406.84684027778</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20674,10 +20146,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44406.84627314815</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20745,10 +20215,8 @@
           <t>5021850272</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:18:16</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44406.84601851852</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20824,10 +20292,8 @@
           <t>5021839294</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:59</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44406.84582175926</v>
       </c>
       <c r="I276" t="n">
         <v>8</v>
@@ -20899,10 +20365,8 @@
           <t>5021843674</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:41</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44406.84561342592</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20975,10 +20439,8 @@
           <t>5021834064</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:20</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44406.84537037037</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -21050,10 +20512,8 @@
           <t>5021835230</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:20</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44406.84537037037</v>
       </c>
       <c r="I279" t="n">
         <v>4</v>
@@ -21129,10 +20589,8 @@
           <t>5021842258</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:17:11</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44406.8452662037</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -21196,10 +20654,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:56</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44406.84509259259</v>
       </c>
       <c r="I281" t="n">
         <v>12</v>
@@ -21275,10 +20731,8 @@
           <t>5021841375</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:52</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44406.84504629629</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21346,10 +20800,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:44</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44406.8449537037</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21425,10 +20877,8 @@
           <t>5021729242</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:38</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44406.84488425926</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21504,10 +20954,8 @@
           <t>5021835230</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:26</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44406.84474537037</v>
       </c>
       <c r="I285" t="n">
         <v>12</v>
@@ -21579,10 +21027,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:16:11</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44406.84457175926</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21650,10 +21096,8 @@
           <t>5021828194</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:46</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44406.84428240741</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21729,10 +21173,8 @@
           <t>5021827850</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:39</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44406.84420138889</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21804,10 +21246,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:31</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44406.84410879629</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21883,10 +21323,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:04</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44406.8437962963</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21954,10 +21392,8 @@
           <t>5021826072</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:15:01</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44406.84376157408</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -22021,10 +21457,8 @@
           <t>5021818212</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:57</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44406.84371527778</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22100,10 +21534,8 @@
           <t>5021820321</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:37</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44406.8434837963</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -22179,10 +21611,8 @@
           <t>5021816593</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:18</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44406.84326388889</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -22254,10 +21684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:14:01</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44406.84306712963</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -22326,10 +21754,8 @@
           <t>5021783208</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:48</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44406.84291666667</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22405,10 +21831,8 @@
           <t>5021807859</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:40</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44406.84282407408</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22488,10 +21912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:33</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44406.84274305555</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22567,10 +21989,8 @@
           <t>5021811627</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:13:29</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44406.84269675926</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22638,10 +22058,8 @@
           <t>5021781882</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:42</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44406.84215277778</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22706,10 +22124,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:31</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44406.84202546296</v>
       </c>
       <c r="I301" t="n">
         <v>15</v>
@@ -22773,10 +22189,8 @@
           <t>5021794500</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:24</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44406.84194444444</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22846,10 +22260,8 @@
           <t>5021783208</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:11</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44406.84179398148</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22925,10 +22337,8 @@
           <t>5021801036</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:12:06</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44406.84173611111</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -23004,10 +22414,8 @@
           <t>5021797234</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:58</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44406.84164351852</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -23075,10 +22483,8 @@
           <t>5021792671</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:43</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44406.84146990741</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23142,10 +22548,8 @@
           <t>5021792425</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:37</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44406.84140046296</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23213,10 +22617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:18</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44406.84118055556</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23292,10 +22694,8 @@
           <t>5021791128</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:11:09</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44406.84107638889</v>
       </c>
       <c r="I309" t="n">
         <v>18</v>
@@ -23365,10 +22765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:48</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44406.84083333334</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23436,10 +22834,8 @@
           <t>5021783208</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:35</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44406.84068287037</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23515,10 +22911,8 @@
           <t>5021782491</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:21</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44406.84052083334</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23586,10 +22980,8 @@
           <t>5021782183</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:15</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44406.84045138889</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23657,10 +23049,8 @@
           <t>5021781882</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:10:09</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44406.84038194444</v>
       </c>
       <c r="I314" t="n">
         <v>7</v>
@@ -23736,10 +23126,8 @@
           <t>5021785620</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:58</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44406.84025462963</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23808,10 +23196,8 @@
           <t>5021777561</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:50</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44406.84016203704</v>
       </c>
       <c r="I316" t="n">
         <v>4</v>
@@ -23879,10 +23265,8 @@
           <t>5021769790</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:38</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44406.84002314815</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23946,10 +23330,8 @@
           <t>5021774138</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:14</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44406.83974537037</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -24009,10 +23391,8 @@
           <t>5021775859</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:14</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44406.83974537037</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -24076,10 +23456,8 @@
           <t>5021768213</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:09:01</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44406.8395949074</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -24147,10 +23525,8 @@
           <t>5021767900</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:53</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44406.83950231481</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24226,10 +23602,8 @@
           <t>5021763844</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:28</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44406.83921296296</v>
       </c>
       <c r="I322" t="n">
         <v>9</v>
@@ -24306,10 +23680,8 @@
           <t>5021697115</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:27</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44406.83920138889</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24375,10 +23747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:24</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44406.83916666666</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24448,10 +23818,8 @@
           <t>5021755079</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:18</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44406.83909722222</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24515,10 +23883,8 @@
           <t>5021762694</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:02</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44406.83891203703</v>
       </c>
       <c r="I326" t="n">
         <v>25</v>
@@ -24586,10 +23952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:08:01</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44406.83890046296</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24665,10 +24029,8 @@
           <t>5021762430</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:57</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44406.83885416666</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24740,10 +24102,8 @@
           <t>5021656894</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:47</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44406.83873842593</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24811,10 +24171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:39</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44406.83864583333</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24874,10 +24232,8 @@
           <t>5021706385</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:30</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44406.83854166666</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24954,10 +24310,8 @@
           <t>5021754123</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:23</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44406.83846064815</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -25033,10 +24387,8 @@
           <t>5021753599</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:12</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44406.83833333333</v>
       </c>
       <c r="I333" t="n">
         <v>6</v>
@@ -25100,10 +24452,8 @@
           <t>5021695159</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:07:10</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44406.83831018519</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25181,10 +24531,8 @@
           <t>5021753061</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:59</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44406.83818287037</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25252,10 +24600,8 @@
           <t>5021695159</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:33</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44406.83788194445</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25323,10 +24669,8 @@
           <t>5021755079</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:10</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44406.83761574074</v>
       </c>
       <c r="I337" t="n">
         <v>12</v>
@@ -25403,10 +24747,8 @@
           <t>5021750861</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:08</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44406.83759259259</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -25478,10 +24820,8 @@
           <t>5021750820</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:07</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44406.83758101852</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25557,10 +24897,8 @@
           <t>5021750795</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:07</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44406.83758101852</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25636,10 +24974,8 @@
           <t>5021744730</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:06:03</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44406.83753472222</v>
       </c>
       <c r="I341" t="n">
         <v>14</v>
@@ -25715,10 +25051,8 @@
           <t>5021744364</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:56</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44406.8374537037</v>
       </c>
       <c r="I342" t="n">
         <v>2</v>
@@ -25794,10 +25128,8 @@
           <t>5021743960</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:47</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44406.83734953704</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25869,10 +25201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:46</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44406.83733796296</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25936,10 +25266,8 @@
           <t>5021746134</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:38</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44406.83724537037</v>
       </c>
       <c r="I345" t="n">
         <v>36</v>
@@ -26007,10 +25335,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:38</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44406.83724537037</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -26087,10 +25413,8 @@
           <t>5021745978</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:34</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44406.83719907407</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26156,10 +25480,8 @@
           <t>5021743037</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:30</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44406.83715277778</v>
       </c>
       <c r="I348" t="n">
         <v>8</v>
@@ -26235,10 +25557,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:21</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44406.83704861111</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26302,10 +25622,8 @@
           <t>5021706385</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:05:21</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44406.83704861111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26369,10 +25687,8 @@
           <t>5021666931</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:52</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44406.83671296296</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26444,10 +25760,8 @@
           <t>5021706385</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:39</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44406.8365625</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26519,10 +25833,8 @@
           <t>5021740329</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:35</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44406.8365162037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26598,10 +25910,8 @@
           <t>5021732683</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:24</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44406.83638888889</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26671,10 +25981,8 @@
           <t>5021729215</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:13</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44406.83626157408</v>
       </c>
       <c r="I355" t="n">
         <v>5</v>
@@ -26738,10 +26046,8 @@
           <t>5021729242</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:13</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44406.83626157408</v>
       </c>
       <c r="I356" t="n">
         <v>5</v>
@@ -26820,10 +26126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:08</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44406.8362037037</v>
       </c>
       <c r="I357" t="n">
         <v>655</v>
@@ -26895,10 +26199,8 @@
           <t>5021728854</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:06</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44406.83618055555</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26967,10 +26269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:04:01</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44406.83612268518</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -27038,10 +26338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:57</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44406.83607638889</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -27105,10 +26403,8 @@
           <t>5021728170</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:54</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44406.83604166667</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27184,10 +26480,8 @@
           <t>5021731164</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:53</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44406.83603009259</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27264,10 +26558,8 @@
           <t>5021724748</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:52</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44406.83601851852</v>
       </c>
       <c r="I363" t="n">
         <v>11</v>
@@ -27331,10 +26623,8 @@
           <t>5021724736</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:52</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44406.83601851852</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27410,10 +26700,8 @@
           <t>5021724376</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:44</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44406.83592592592</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27477,10 +26765,8 @@
           <t>5021724216</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:41</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44406.8358912037</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27552,10 +26838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:33</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44406.83579861111</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27631,10 +26915,8 @@
           <t>5021723828</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:31</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44406.83577546296</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27705,10 +26987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:20</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44406.83564814815</v>
       </c>
       <c r="I369" t="n">
         <v>70</v>
@@ -27772,10 +27052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:16</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44406.83560185185</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27843,10 +27121,8 @@
           <t>5021719372</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:14</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44406.83557870371</v>
       </c>
       <c r="I371" t="n">
         <v>14</v>
@@ -27914,10 +27190,8 @@
           <t>5021704077</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:13</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44406.83556712963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27981,10 +27255,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:12</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44406.83555555555</v>
       </c>
       <c r="I373" t="n">
         <v>8</v>
@@ -28052,10 +27324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:12</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44406.83555555555</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -28119,10 +27389,8 @@
           <t>5021719295</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:12</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44406.83555555555</v>
       </c>
       <c r="I375" t="n">
         <v>6</v>
@@ -28195,10 +27463,8 @@
           <t>5021722861</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:09</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44406.83552083333</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28270,10 +27536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:03:08</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44406.83550925926</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28341,10 +27605,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:53</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44406.83533564815</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -28404,10 +27666,8 @@
           <t>5021721945</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:47</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44406.83526620371</v>
       </c>
       <c r="I379" t="n">
         <v>5</v>
@@ -28483,10 +27743,8 @@
           <t>5021714456</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:41</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44406.83519675926</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28562,10 +27820,8 @@
           <t>5021713677</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:27</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44406.83503472222</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28629,10 +27885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:26</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44406.83502314815</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28705,10 +27959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:25</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44406.83501157408</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28772,10 +28024,8 @@
           <t>5021713455</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:23</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44406.83498842592</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28843,10 +28093,8 @@
           <t>5021716928</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:22</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44406.83497685185</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28922,10 +28170,8 @@
           <t>5021720648</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:19</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44406.83494212963</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -29001,10 +28247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:11</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44406.83484953704</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -29080,10 +28324,8 @@
           <t>5021716142</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:02:06</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44406.83479166667</v>
       </c>
       <c r="I388" t="n">
         <v>15</v>
@@ -29159,10 +28401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:48</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44406.83458333334</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29238,10 +28478,8 @@
           <t>5021706385</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:41</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44406.83450231481</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29317,10 +28555,8 @@
           <t>5021658809</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:32</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44406.83439814814</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29388,10 +28624,8 @@
           <t>5021708448</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:29</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44406.83436342593</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29455,10 +28689,8 @@
           <t>5021704077</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:20</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44406.83425925926</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29534,10 +28766,8 @@
           <t>5021704045</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:19</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44406.83424768518</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29609,10 +28839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:17</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44406.83422453704</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29688,10 +28916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:13</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44406.83417824074</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29756,10 +28982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:11</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44406.83415509259</v>
       </c>
       <c r="I397" t="n">
         <v>41</v>
@@ -29836,10 +29060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:11</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44406.83415509259</v>
       </c>
       <c r="I398" t="n">
         <v>14</v>
@@ -29915,10 +29137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:07</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44406.8341087963</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29986,10 +29206,8 @@
           <t>5021703522</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:07</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44406.8341087963</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -30065,10 +29283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:01:06</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44406.83409722222</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30141,10 +29357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:58</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44406.83400462963</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30212,10 +29426,8 @@
           <t>5021706851</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:52</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44406.83393518518</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30291,10 +29503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:52</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44406.83393518518</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30370,10 +29580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:44</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44406.83384259259</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30441,10 +29649,8 @@
           <t>5021698329</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:43</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44406.83383101852</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30516,10 +29722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:42</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44406.83381944444</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30595,10 +29799,8 @@
           <t>5021706385</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:41</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44406.83380787037</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30674,10 +29876,8 @@
           <t>5021702007</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:35</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44406.83373842593</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30749,10 +29949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:34</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44406.83372685185</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30824,10 +30022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:34</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44406.83372685185</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30903,10 +30099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:32</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44406.83370370371</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30970,10 +30164,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:29</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44406.83366898148</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -31041,10 +30233,8 @@
           <t>5021705760</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:28</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44406.83365740741</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -31116,10 +30306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:25</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44406.83362268518</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31183,10 +30371,8 @@
           <t>5021697115</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:19</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44406.83355324074</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -31258,10 +30444,8 @@
           <t>5021693291</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:16</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44406.83351851852</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -31333,10 +30517,8 @@
           <t>5021696863</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:15</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44406.83350694444</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31404,10 +30586,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:14</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44406.83349537037</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31483,10 +30663,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:11</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44406.83346064815</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31554,10 +30732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:09</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44406.8334375</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31633,10 +30809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:07</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44406.83341435185</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31704,10 +30878,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:07</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44406.83341435185</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31775,10 +30947,8 @@
           <t>5021700378</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:00:01</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44406.83334490741</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31846,10 +31016,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:59</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44406.83332175926</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31921,10 +31089,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:53</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44406.83325231481</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -32000,10 +31166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:51</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44406.83322916667</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -32079,10 +31243,8 @@
           <t>5021695523</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:49</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44406.83320601852</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32150,10 +31312,8 @@
           <t>5021695217</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:43</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44406.83313657407</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -32221,10 +31381,8 @@
           <t>5021695194</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:42</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44406.833125</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32288,10 +31446,8 @@
           <t>5021695159</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:42</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44406.833125</v>
       </c>
       <c r="I431" t="n">
         <v>9</v>
@@ -32355,10 +31511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:39</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44406.83309027777</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32434,10 +31588,8 @@
           <t>5021693291</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:33</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44406.83302083334</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32509,10 +31661,8 @@
           <t>5021693090</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:28</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44406.83296296297</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32588,10 +31738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:27</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44406.83295138889</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32659,10 +31807,8 @@
           <t>5021688547</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:21</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44406.83288194444</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32738,10 +31884,8 @@
           <t>5021678832</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:19</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44406.8328587963</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32813,10 +31957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:17</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44406.83283564815</v>
       </c>
       <c r="I438" t="n">
         <v>30</v>
@@ -32892,10 +32034,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:16</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44406.83282407407</v>
       </c>
       <c r="I439" t="n">
         <v>2</v>
@@ -32963,10 +32103,8 @@
           <t>5021688331</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:16</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44406.83282407407</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -33038,10 +32176,8 @@
           <t>5021692424</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:14</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44406.83280092593</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -33117,10 +32253,8 @@
           <t>5021692396</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:13</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44406.83278935185</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33196,10 +32330,8 @@
           <t>5021688111</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:11</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44406.8327662037</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -33273,10 +32405,8 @@
           <t>5021688068</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:10</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44406.83275462963</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33352,10 +32482,8 @@
           <t>5021687613</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:01</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44406.83265046297</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33419,10 +32547,8 @@
           <t>5021683023</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:59:00</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44406.83263888889</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33535,10 +32661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:59</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44406.83262731481</v>
       </c>
       <c r="I447" t="n">
         <v>23</v>
@@ -33602,10 +32726,8 @@
           <t>5021691749</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:58</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44406.83261574074</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33681,10 +32803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:57</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44406.83260416667</v>
       </c>
       <c r="I449" t="n">
         <v>2</v>
@@ -33752,10 +32872,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:51</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44406.83253472222</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33815,10 +32933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:50</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44406.83252314815</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33894,10 +33010,8 @@
           <t>5021691355</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:49</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44406.83251157407</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33973,10 +33087,8 @@
           <t>5021682441</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:48</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44406.8325</v>
       </c>
       <c r="I453" t="n">
         <v>3</v>
@@ -34048,10 +33160,8 @@
           <t>5021691190</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:46</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44406.83247685185</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -34130,10 +33240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:44</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44406.8324537037</v>
       </c>
       <c r="I455" t="n">
         <v>3</v>
@@ -34197,10 +33305,8 @@
           <t>5021668732</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:42</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44406.83243055556</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -34264,10 +33370,8 @@
           <t>5021686708</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:41</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44406.83241898148</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34343,10 +33447,8 @@
           <t>5021658809</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:40</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44406.8324074074</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34422,10 +33524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:40</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44406.8324074074</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34497,10 +33597,8 @@
           <t>5021690847</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:38</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44406.83238425926</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34576,10 +33674,8 @@
           <t>5021686365</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:33</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44406.83232638889</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34647,10 +33743,8 @@
           <t>5021654951</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:30</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44406.83229166667</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34718,10 +33812,8 @@
           <t>5021681368</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:28</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44406.83226851852</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34797,10 +33889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:26</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44406.83224537037</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34876,10 +33966,8 @@
           <t>5021685812</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:21</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44406.8321875</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34951,10 +34039,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:20</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44406.83217592593</v>
       </c>
       <c r="I466" t="n">
         <v>3</v>
@@ -35018,10 +34104,8 @@
           <t>5021690007</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:19</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44406.83216435185</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -35089,10 +34173,8 @@
           <t>5021680798</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:17</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44406.8321412037</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -35168,10 +34250,8 @@
           <t>5021680503</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:58:11</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44406.83207175926</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -35243,10 +34323,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:54</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44406.831875</v>
       </c>
       <c r="I470" t="n">
         <v>3</v>
@@ -35322,10 +34400,8 @@
           <t>5021678832</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:53</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44406.83186342593</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35389,10 +34465,8 @@
           <t>5021666931</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:49</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44406.83181712963</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -35468,10 +34542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:48</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44406.83180555556</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35543,10 +34615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:47</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44406.83179398148</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35622,10 +34692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:40</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44406.83171296296</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35701,10 +34769,8 @@
           <t>5021678272</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:40</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44406.83171296296</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35780,10 +34846,8 @@
           <t>5021668732</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:36</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44406.83166666667</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35855,10 +34919,8 @@
           <t>5021668697</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:35</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44406.8316550926</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35934,10 +34996,8 @@
           <t>5021673561</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:32</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44406.83162037037</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -36006,10 +35066,8 @@
           <t>5021673436</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:29</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44406.83158564815</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -36077,10 +35135,8 @@
           <t>5021673418</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:29</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44406.83158564815</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -36156,10 +35212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:28</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44406.83157407407</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -36231,10 +35285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:28</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44406.83157407407</v>
       </c>
       <c r="I483" t="n">
         <v>24</v>
@@ -36310,10 +35362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:27</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44406.8315625</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36381,10 +35431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:26</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44406.83155092593</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36448,10 +35496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:20</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44406.83148148148</v>
       </c>
       <c r="I486" t="n">
         <v>143</v>
@@ -36527,10 +35573,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:16</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44406.83143518519</v>
       </c>
       <c r="I487" t="n">
         <v>6</v>
@@ -36598,10 +35642,8 @@
           <t>5021672427</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:10</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44406.83136574074</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36678,10 +35720,8 @@
           <t>5021672391</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:10</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44406.83136574074</v>
       </c>
       <c r="I489" t="n">
         <v>8</v>
@@ -36753,10 +35793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:09</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44406.83135416666</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36832,10 +35870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:08</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44406.8313425926</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36911,10 +35947,8 @@
           <t>5021672217</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:06</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44406.83131944444</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36986,10 +36020,8 @@
           <t>5021672171</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:57:05</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44406.83130787037</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -37065,10 +36097,8 @@
           <t>5021666981</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:59</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44406.83123842593</v>
       </c>
       <c r="I494" t="n">
         <v>3</v>
@@ -37140,10 +36170,8 @@
           <t>5021666931</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:58</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44406.83122685185</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -37211,10 +36239,8 @@
           <t>5021671691</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:56</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44406.8312037037</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -37286,10 +36312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:55</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44406.83119212963</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -37353,10 +36377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:50</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44406.83113425926</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37420,10 +36442,8 @@
           <t>5021675884</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:45</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44406.83107638889</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -37499,10 +36519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:42</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44406.83104166666</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -37578,10 +36596,8 @@
           <t>5021675425</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:35</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44406.83096064815</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37645,10 +36661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:32</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44406.83092592593</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37720,10 +36734,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:30</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44406.83090277778</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37787,10 +36799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:29</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44406.8308912037</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37866,10 +36876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:25</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44406.83084490741</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37941,10 +36949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:25</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44406.83084490741</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -38012,10 +37018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:24</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44406.83083333333</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -38079,10 +37083,8 @@
           <t>5021665229</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:21</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44406.83079861111</v>
       </c>
       <c r="I508" t="n">
         <v>2</v>
@@ -38158,10 +37160,8 @@
           <t>5021654951</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:15</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44406.83072916666</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -38237,10 +37237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44406.83071759259</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -38312,10 +37310,8 @@
           <t>5021659403</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:11</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44406.83068287037</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -38391,10 +37387,8 @@
           <t>5021654727</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:10</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44406.83067129629</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38458,10 +37452,8 @@
           <t>5021664387</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:09</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44406.83065972223</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38537,10 +37529,8 @@
           <t>5021659244</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:07</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44406.83063657407</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38608,10 +37598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:05</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44406.83061342593</v>
       </c>
       <c r="I515" t="n">
         <v>2</v>
@@ -38679,10 +37667,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:05</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44406.83061342593</v>
       </c>
       <c r="I516" t="n">
         <v>4</v>
@@ -38754,10 +37740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:56:01</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44406.83056712963</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38825,10 +37809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:59</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44406.83054398148</v>
       </c>
       <c r="I518" t="n">
         <v>4</v>
@@ -38892,10 +37874,8 @@
           <t>5021658809</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:57</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44406.83052083333</v>
       </c>
       <c r="I519" t="n">
         <v>5</v>
@@ -38963,10 +37943,8 @@
           <t>5021658391</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:48</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44406.83041666666</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -39034,10 +38012,8 @@
           <t>5021653649</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:46</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44406.83039351852</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -39113,10 +38089,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:33</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44406.83024305556</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -39184,10 +38158,8 @@
           <t>5021662410</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:30</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44406.83020833333</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -39251,10 +38223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:29</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44406.83019675926</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -39330,10 +38300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:28</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44406.83018518519</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39406,10 +38374,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:28</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44406.83018518519</v>
       </c>
       <c r="I526" t="n">
         <v>131</v>
@@ -39485,10 +38451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:23</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44406.83012731482</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39560,10 +38524,8 @@
           <t>5021652577</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:22</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44406.83011574074</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -39639,10 +38601,8 @@
           <t>5021661893</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:19</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44406.83008101852</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -39718,10 +38678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:17</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44406.83005787037</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39789,10 +38747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:16</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44406.83004629629</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39868,10 +38824,8 @@
           <t>5021661718</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:16</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44406.83004629629</v>
       </c>
       <c r="I532" t="n">
         <v>4</v>
@@ -39939,10 +38893,8 @@
           <t>5021656971</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:16</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44406.83004629629</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -40006,10 +38958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:15</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44406.83003472222</v>
       </c>
       <c r="I534" t="n">
         <v>16</v>
@@ -40086,10 +39036,8 @@
           <t>5021656894</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:14</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44406.83002314815</v>
       </c>
       <c r="I535" t="n">
         <v>17</v>
@@ -40155,10 +39103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:13</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44406.83001157407</v>
       </c>
       <c r="I536" t="n">
         <v>9</v>
@@ -40234,10 +39180,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:13</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44406.83001157407</v>
       </c>
       <c r="I537" t="n">
         <v>8</v>
@@ -40309,10 +39253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:09</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44406.82996527778</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -40388,10 +39330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:08</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44406.8299537037</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40468,10 +39408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:08</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44406.8299537037</v>
       </c>
       <c r="I540" t="n">
         <v>3</v>
@@ -40543,10 +39481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:05</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44406.82991898148</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40606,10 +39542,8 @@
           <t>5021661231</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:05</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44406.82991898148</v>
       </c>
       <c r="I542" t="n">
         <v>7</v>
@@ -40681,10 +39615,8 @@
           <t>5021651753</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:04</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44406.82990740741</v>
       </c>
       <c r="I543" t="n">
         <v>6</v>
@@ -40752,10 +39684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:02</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44406.82988425926</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40819,10 +39749,8 @@
           <t>5021651650</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:02</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44406.82988425926</v>
       </c>
       <c r="I545" t="n">
         <v>17</v>
@@ -40890,10 +39818,8 @@
           <t>5021656378</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:01</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44406.82987268519</v>
       </c>
       <c r="I546" t="n">
         <v>90</v>
@@ -40969,10 +39895,8 @@
           <t>5021661014</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:01</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44406.82987268519</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -41036,10 +39960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:55:00</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44406.82986111111</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -41111,10 +40033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:58</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44406.82983796296</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -41183,10 +40103,8 @@
           <t>5021656167</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:56</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44406.82981481482</v>
       </c>
       <c r="I550" t="n">
         <v>27</v>
@@ -41262,10 +40180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:52</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44406.82976851852</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -41343,10 +40259,8 @@
           <t>5021660611</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:52</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44406.82976851852</v>
       </c>
       <c r="I552" t="n">
         <v>6</v>
@@ -41418,10 +40332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:47</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44406.82971064815</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41497,10 +40409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:44</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44406.82967592592</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41576,10 +40486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:43</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44406.82966435186</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41655,10 +40563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:41</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44406.8296412037</v>
       </c>
       <c r="I556" t="n">
         <v>3</v>
@@ -41730,10 +40636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:41</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44406.8296412037</v>
       </c>
       <c r="I557" t="n">
         <v>3</v>
@@ -41805,10 +40709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:39</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44406.82961805556</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41876,10 +40778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:39</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44406.82961805556</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41943,10 +40843,8 @@
           <t>5021655459</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:39</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44406.82961805556</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -42022,10 +40920,8 @@
           <t>5021655427</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:39</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44406.82961805556</v>
       </c>
       <c r="I561" t="n">
         <v>407</v>
@@ -42101,10 +40997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:37</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44406.82959490741</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -42176,10 +41070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:32</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44406.82953703704</v>
       </c>
       <c r="I563" t="n">
         <v>6</v>
@@ -42255,10 +41147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:32</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44406.82953703704</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -42322,10 +41212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:32</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44406.82953703704</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42389,10 +41277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:32</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44406.82953703704</v>
       </c>
       <c r="I566" t="n">
         <v>56</v>
@@ -42464,10 +41350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:31</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44406.82952546296</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -42531,10 +41415,8 @@
           <t>5021639969</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:27</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44406.82947916666</v>
       </c>
       <c r="I568" t="n">
         <v>14</v>
@@ -42606,10 +41488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:20</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44406.82939814815</v>
       </c>
       <c r="I569" t="n">
         <v>192</v>
@@ -42681,10 +41561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:19</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44406.82938657407</v>
       </c>
       <c r="I570" t="n">
         <v>13</v>
@@ -42756,10 +41634,8 @@
           <t>5021648266</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:05</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44406.82922453704</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42835,10 +41711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:01</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44406.82917824074</v>
       </c>
       <c r="I572" t="n">
         <v>8</v>
@@ -42914,10 +41788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:54:00</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44406.82916666667</v>
       </c>
       <c r="I573" t="n">
         <v>2</v>
@@ -42989,10 +41861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:59</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44406.82915509259</v>
       </c>
       <c r="I574" t="n">
         <v>30</v>
@@ -43060,10 +41930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:58</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44406.82914351852</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -43135,10 +42003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:57</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44406.82913194445</v>
       </c>
       <c r="I576" t="n">
         <v>367</v>
@@ -43210,10 +42076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:56</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44406.82912037037</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -43277,10 +42141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:52</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44406.82907407408</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -43357,10 +42219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:51</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44406.8290625</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43436,10 +42296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:50</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44406.82905092592</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -43511,10 +42369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:49</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44406.82903935185</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43591,10 +42447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:45</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44406.82899305555</v>
       </c>
       <c r="I582" t="n">
         <v>5</v>
@@ -43670,10 +42524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:43</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44406.82896990741</v>
       </c>
       <c r="I583" t="n">
         <v>1101</v>
@@ -43741,10 +42593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:42</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44406.82895833333</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43812,10 +42662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:40</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44406.82893518519</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43883,10 +42731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:39</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44406.82892361111</v>
       </c>
       <c r="I586" t="n">
         <v>5</v>
@@ -43963,10 +42809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:38</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44406.82891203704</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -44034,10 +42878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:38</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44406.82891203704</v>
       </c>
       <c r="I588" t="n">
         <v>346</v>
@@ -44113,10 +42955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:37</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44406.82890046296</v>
       </c>
       <c r="I589" t="n">
         <v>5</v>
@@ -44188,10 +43028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:36</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44406.82888888889</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -44263,10 +43101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:36</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44406.82888888889</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -44339,10 +43175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:34</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44406.82886574074</v>
       </c>
       <c r="I592" t="n">
         <v>40</v>
@@ -44414,10 +43248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:32</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44406.82884259259</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -44489,10 +43321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:32</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44406.82884259259</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44556,10 +43386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:29</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44406.82880787037</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44623,10 +43451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:26</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44406.82877314815</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44702,10 +43528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:25</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44406.82876157408</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44777,10 +43601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:24</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44406.82875</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44844,10 +43666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:53:13</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44406.82862268519</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
